--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140678271</v>
+        <v>837.255728880667</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3799998760223389</v>
+        <v>0.3629999160766602</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.30223322084831</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.39540351348236</v>
+        <v>9.241189218116306</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.788310969284333</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2257.080000001621</v>
+        <v>737.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.60181147454995</v>
+        <v>26.21168903071567</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>24.60987755616574</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.25804892475681</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.76895270323383</v>
+        <v>20.75881078188369</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,10 +957,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -971,29 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.442000000021</v>
+        <v>163.2</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4220000000041</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22300000000378</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>297.2660000000685</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>219.7460000000043</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>297.2660000000998</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>128.4420000000628</v>
+        <v>163.2</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>197.2660000000996</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>28.44200000006256</v>
+        <v>63.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1245,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1256,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
